--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -49,7 +49,7 @@
     <t>Set up Github repository</t>
   </si>
   <si>
-    <t>Link GTTS to System</t>
+    <t>Link GTTS (Google Text to Speech) to System</t>
   </si>
   <si>
     <t/>

--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -37,19 +37,25 @@
     <t>Actual Effort (hours)</t>
   </si>
   <si>
+    <t>Weekly Group Meeting - Discuss development plan</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
     <t>Hardware Testing - Voice and Sound IO</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>In-class</t>
   </si>
   <si>
     <t>Set up Github repository</t>
   </si>
   <si>
-    <t>Link GTTS (Google Text to Speech) to System</t>
+    <t>Figure out GTTS (Google Text to Speech)</t>
   </si>
   <si>
     <t/>
@@ -498,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="E2" s="5">
         <v>100</v>
       </c>
       <c r="F2" s="6">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -518,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>44967</v>
@@ -530,18 +536,18 @@
         <v>44967</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>44967</v>
@@ -553,67 +559,81 @@
         <v>44967</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44967</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">

--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneal\Desktop\Internet of Things\CPSC-341-01-S23-Twister\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F593EF-B232-4B08-93F2-09E3CC16AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="WeekMar25"/>
+    <sheet name="WeekFeb6" sheetId="1" r:id="rId1"/>
+    <sheet name="WeekFeb13" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -64,8 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +96,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdeebf7"/>
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -121,47 +127,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -172,10 +176,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -213,71 +217,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -305,7 +309,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -328,11 +332,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -341,13 +345,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -357,7 +361,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -366,7 +370,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,7 +379,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,10 +387,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -451,26 +455,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -539,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -562,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -585,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -602,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -619,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -636,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -645,7 +650,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -654,7 +659,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -663,7 +668,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -672,7 +677,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -681,7 +686,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -690,7 +695,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -699,7 +704,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -708,7 +713,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -720,4 +725,275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B5A65-0D45-477C-B026-3026A771809D}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44965</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44965</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44967</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44967</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44967</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneal\Desktop\Internet of Things\CPSC-341-01-S23-Twister\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D1CFC9-3302-4FC7-81AA-FF27AF1E7C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74973E-D513-409B-9F98-65A5951DE4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Find module to do input</t>
+  </si>
+  <si>
+    <t>~ 3 hours</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +824,9 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" s="6">
         <v>44972</v>
       </c>
@@ -857,7 +862,9 @@
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="6">
         <v>44972</v>
       </c>

--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -1044,7 +1044,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>

--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Desktop\Internet of Things\CPSC-341-01-S23-Twister\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4821D87-CBF3-416B-8421-D2B5E5E2E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="15240" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="WeekFeb6"/>
-    <sheet r:id="rId2" sheetId="2" name="WeekFeb13"/>
-    <sheet r:id="rId3" sheetId="3" name="WeekFeb20"/>
+    <sheet name="WeekFeb6" sheetId="1" r:id="rId1"/>
+    <sheet name="WeekFeb13" sheetId="2" r:id="rId2"/>
+    <sheet name="WeekFeb20" sheetId="3" r:id="rId3"/>
+    <sheet name="WeekFeb27" sheetId="4" r:id="rId4"/>
+    <sheet name="WeekMar6" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -139,13 +147,48 @@
   </si>
   <si>
     <t>20 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon made progress regarding the Voice Input controls and module. He completed a proof of concept regarding the module, but has some issues with detecting a word within a phrase of sentence, if not spoken slowly enough. He plans to investigate this issue, then to implement this component into our main program. Carson made progress in regard to the voice output. He has completed a proof of concept for the basic voice output, but has run into issues regarding implementation into the main program. These bugs he will be looking into, while also looking for other libraries that could bypass these issues. Jack has made progress by continuing to work on the visual display and implementing that into our main twister code making sure to line up the right command withe the right visual. </t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>Continue to implement code visuals into main program</t>
+  </si>
+  <si>
+    <t>Group Meeting 3/3</t>
+  </si>
+  <si>
+    <t>Solving bug errors/ new VO module</t>
+  </si>
+  <si>
+    <t>VI specific word bug and implementing module into code</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>not complete</t>
+  </si>
+  <si>
+    <t>Finish up implementation of voice input module</t>
+  </si>
+  <si>
+    <t>Clean and incorporate code into main structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon worked on the word bug and got far with implementing the voice input module. Carson was able to incorporate the voice output module into the main code while Jack worked on the visual display implementation. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdeebf7"/>
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,65 +244,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -270,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -311,71 +344,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,7 +436,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -426,11 +459,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -439,13 +472,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -455,7 +488,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -464,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,10 +514,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -549,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -559,16 +592,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="56.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="56.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -614,7 +646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -637,7 +669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -660,7 +692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -683,7 +715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -706,7 +738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -715,7 +747,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -724,7 +756,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -733,7 +765,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -742,7 +774,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -751,7 +783,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -760,7 +792,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
@@ -769,7 +801,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -778,7 +810,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -787,7 +819,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -796,7 +828,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -811,26 +843,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="46.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="46.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -876,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -899,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -922,7 +954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -945,7 +977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -954,7 +986,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -963,7 +995,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -972,7 +1004,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -981,7 +1013,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -990,7 +1022,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -999,7 +1031,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -1008,7 +1040,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
@@ -1017,7 +1049,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -1026,7 +1058,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -1035,7 +1067,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -1044,7 +1076,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -1059,26 +1091,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1115,16 +1149,16 @@
         <v>44979</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1137,17 +1171,17 @@
       <c r="D3" s="6">
         <v>44979</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1160,17 +1194,17 @@
       <c r="D4" s="6">
         <v>44979</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1183,17 +1217,15 @@
       <c r="D5" s="6">
         <v>44979</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1202,7 +1234,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1211,7 +1243,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1220,7 +1252,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -1229,7 +1261,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -1238,58 +1270,384 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D1D1D-9FD0-4857-83E7-2201D4BDCA6A}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44988</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44988</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44988</v>
+      </c>
+      <c r="E4" s="7">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44988</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B5D4A9-9B51-4A66-A687-392F0FAC6D9E}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44995</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44995</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/GroupProjectPlan.xlsx
+++ b/documentation/GroupProjectPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Desktop\Internet of Things\CPSC-341-01-S23-Twister\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneal\Desktop\Internet of Things\Twister\CPSC-341-01-S23-Twister\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4821D87-CBF3-416B-8421-D2B5E5E2E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B90EC73-CC5E-4377-AC0E-B5B7296517D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="15240" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeekFeb6" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="WeekFeb20" sheetId="3" r:id="rId3"/>
     <sheet name="WeekFeb27" sheetId="4" r:id="rId4"/>
     <sheet name="WeekMar6" sheetId="5" r:id="rId5"/>
+    <sheet name="WeekMar13" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -183,6 +184,18 @@
   </si>
   <si>
     <t xml:space="preserve">Brandon worked on the word bug and got far with implementing the voice input module. Carson was able to incorporate the voice output module into the main code while Jack worked on the visual display implementation. </t>
+  </si>
+  <si>
+    <t>1 hour 15 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn in code </t>
+  </si>
+  <si>
+    <t>Make Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon was able to finish up the code and implemented the bash file (To make it run on bootup). Coming to class we then had successful test runs on our program on 3/10/2023. Going forward we just need to create our presentation and turn in our final version of our code by the 24th. </t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B5D4A9-9B51-4A66-A687-392F0FAC6D9E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,14 +1561,14 @@
       <c r="D2" s="6">
         <v>44995</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44995</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,14 +1584,14 @@
       <c r="D3" s="6">
         <v>44995</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44995</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,4 +1665,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE7EEA-6557-4672-AFE0-661129A93820}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45009</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45009</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45009</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45009</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>